--- a/Classifiers/Figures/AccuracySummaryTable.xlsx
+++ b/Classifiers/Figures/AccuracySummaryTable.xlsx
@@ -57,10 +57,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +99,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -95,7 +113,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,7 +394,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,38 +456,42 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2">
+        <v>0.96650000000000003</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Classifiers/Figures/AccuracySummaryTable.xlsx
+++ b/Classifiers/Figures/AccuracySummaryTable.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,6 +468,14 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
+      <c r="C5" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
+        <v>0.2893</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -476,6 +484,14 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
+      <c r="C6" s="2">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">

--- a/Classifiers/Figures/AccuracySummaryTable.xlsx
+++ b/Classifiers/Figures/AccuracySummaryTable.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,11 +439,15 @@
       <c r="C3" s="2">
         <v>0.92400000000000004</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>0.98040000000000005</v>
+      </c>
       <c r="E3" s="2">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2">
+        <v>0.99129999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -455,11 +459,15 @@
       <c r="C4" s="2">
         <v>0.95799999999999996</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2">
+        <v>0.9677</v>
+      </c>
       <c r="E4" s="2">
         <v>0.96650000000000003</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2">
+        <v>0.95779999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -471,11 +479,15 @@
       <c r="C5" s="2">
         <v>0.74</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2">
+        <v>0.28770000000000001</v>
+      </c>
       <c r="E5" s="2">
         <v>0.2893</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2">
+        <v>0.14430000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -487,11 +499,15 @@
       <c r="C6" s="2">
         <v>0.75900000000000001</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2">
+        <v>0.1784</v>
+      </c>
       <c r="E6" s="2">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2">
+        <v>0.20780000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -503,11 +519,15 @@
       <c r="C7" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2">
+        <v>0.9657</v>
+      </c>
       <c r="E7" s="2">
         <v>0.98</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2">
+        <v>0.99199999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Classifiers/Figures/AccuracySummaryTable.xlsx
+++ b/Classifiers/Figures/AccuracySummaryTable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Training Subject</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Classification Accuracy:</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
@@ -99,8 +102,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -113,12 +122,51 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -126,6 +174,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A2:G8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Training Subject" dataDxfId="8"/>
+    <tableColumn id="2" name="Testing Subject" dataDxfId="7"/>
+    <tableColumn id="3" name="ANN" dataDxfId="6"/>
+    <tableColumn id="4" name="LDA" dataDxfId="5"/>
+    <tableColumn id="5" name="SVM" dataDxfId="4"/>
+    <tableColumn id="6" name="Random Forest" dataDxfId="3"/>
+    <tableColumn id="7" name="Best" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,25 +455,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +493,11 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -448,8 +516,11 @@
       <c r="F3" s="2">
         <v>0.99129999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -468,8 +539,11 @@
       <c r="F4" s="2">
         <v>0.95779999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -477,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>0.74</v>
+        <v>0.26</v>
       </c>
       <c r="D5" s="2">
         <v>0.28770000000000001</v>
@@ -488,8 +562,11 @@
       <c r="F5" s="2">
         <v>0.14430000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -497,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.75900000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D6" s="2">
         <v>0.1784</v>
@@ -508,8 +585,11 @@
       <c r="F6" s="2">
         <v>0.20780000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -528,8 +608,24 @@
       <c r="F7" s="2">
         <v>0.99199999999999999</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>